--- a/04-Sesion/revistasCategorización.xlsx
+++ b/04-Sesion/revistasCategorización.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOMY\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\complementario-3125033\04-Sesion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A020B76C-7FA6-4F47-88C0-79992BD48B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5A0B93F9-8DD5-41AE-8C93-BE93B01CA7C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Título</t>
   </si>
@@ -136,13 +135,97 @@
   </si>
   <si>
     <t>ADSO-2694667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Revista Española de cardiología (English ed.)</t>
+  </si>
+  <si>
+    <t>Internacional (España)</t>
+  </si>
+  <si>
+    <t>European Journal of Psychology Applied to Legal Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internacional </t>
+  </si>
+  <si>
+    <t>European Research on Management and Business Economics</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100228571&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100201725&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100465205&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Revista de Psiquiatria y Salud Mental</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=17600155210&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Revista de Psicologia del Trabajo y de las Organizaciones</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=19900193855&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Journal of Investigational Allergology and Clinical Immunology</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=38787&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>European Journal of Psychiatry</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=15553&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Neurologia</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=17520&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Revista Psicopatologia y Psicologia Clinica</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100200812&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Revista Española de Geriatria y Gerontologia</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=12194&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>REC: Interventional Cardiology</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21101056009&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>Tethys</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100212331&amp;tip=sid&amp;clean=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +253,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,11 +293,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -218,8 +319,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,22 +635,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE28042-FA12-4B3C-8067-C20E1B4DCC56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +664,11 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -574,7 +682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -588,7 +696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -596,7 +704,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -610,7 +718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -624,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -638,7 +746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,7 +766,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,7 +784,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,7 +798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -704,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -718,7 +826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -731,104 +839,191 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -839,6 +1034,20 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G11:J11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1"/>
+    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="F19" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F21" r:id="rId5"/>
+    <hyperlink ref="F22" r:id="rId6"/>
+    <hyperlink ref="F23" r:id="rId7"/>
+    <hyperlink ref="F24" r:id="rId8"/>
+    <hyperlink ref="F25" r:id="rId9"/>
+    <hyperlink ref="F26" r:id="rId10"/>
+    <hyperlink ref="F27" r:id="rId11"/>
+    <hyperlink ref="F28" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/04-Sesion/revistasCategorización.xlsx
+++ b/04-Sesion/revistasCategorización.xlsx
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,16 +261,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,21 +324,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -319,8 +341,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -638,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,6 +708,7 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
@@ -695,6 +723,7 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -703,6 +732,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
@@ -717,6 +747,7 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
@@ -731,6 +762,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -745,6 +777,7 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -759,6 +792,7 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
@@ -777,6 +811,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
@@ -797,6 +832,7 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
@@ -811,6 +847,7 @@
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
@@ -825,6 +862,7 @@
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -839,12 +877,12 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -854,12 +892,12 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -869,12 +907,12 @@
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -884,12 +922,12 @@
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -899,12 +937,12 @@
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -914,12 +952,12 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -929,12 +967,12 @@
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -944,12 +982,12 @@
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -959,12 +997,12 @@
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -974,12 +1012,12 @@
       <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -989,12 +1027,12 @@
       <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1004,12 +1042,12 @@
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1019,7 +1057,7 @@
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1049,5 +1087,6 @@
     <hyperlink ref="F28" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/04-Sesion/revistasCategorización.xlsx
+++ b/04-Sesion/revistasCategorización.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Título</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>https://www.scimagojr.com/journalsearch.php?q=21100212331&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>ESTUDIOS DE LITERATURA COLOMBIANA</t>
+  </si>
+  <si>
+    <t>Regional(Antioquia)</t>
+  </si>
+  <si>
+    <t>Si tiene costo</t>
   </si>
 </sst>
 </file>
@@ -335,12 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -348,6 +351,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -665,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +700,7 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -708,7 +717,7 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
@@ -723,16 +732,22 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
@@ -747,7 +762,7 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
@@ -762,7 +777,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -777,7 +792,7 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -792,13 +807,13 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -811,13 +826,13 @@
         <v>27</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -832,7 +847,7 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
@@ -847,7 +862,7 @@
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
@@ -862,7 +877,7 @@
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -877,12 +892,12 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -892,12 +907,12 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -907,12 +922,12 @@
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -922,12 +937,12 @@
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -937,12 +952,12 @@
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -952,12 +967,12 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -967,12 +982,12 @@
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -982,12 +997,12 @@
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -997,12 +1012,12 @@
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1012,12 +1027,12 @@
       <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1027,12 +1042,12 @@
       <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1042,12 +1057,12 @@
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1057,7 +1072,7 @@
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>61</v>
       </c>
     </row>

--- a/04-Sesion/revistasCategorización.xlsx
+++ b/04-Sesion/revistasCategorización.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\complementario-3125033\04-Sesion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOMY\Documents\complementario-3125033\04-Sesion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC77FF-8DAD-4B6F-9AEB-D8DB79A82DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Título</t>
   </si>
@@ -228,13 +220,16 @@
   </si>
   <si>
     <t>Si tiene costo</t>
+  </si>
+  <si>
+    <t>REVISTA ELEGIDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +272,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,13 +352,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -357,6 +370,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -364,6 +381,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -671,23 +693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,11 +723,11 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -717,9 +740,9 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -732,9 +755,9 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -747,9 +770,9 @@
       <c r="E7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -762,9 +785,9 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -777,9 +800,9 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -792,9 +815,9 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -807,15 +830,15 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -826,15 +849,15 @@
         <v>27</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -847,9 +870,9 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -862,24 +885,27 @@
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="F15" s="15"/>
+      <c r="H15" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -892,191 +918,215 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1088,18 +1138,18 @@
     <mergeCell ref="G11:J11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
-    <hyperlink ref="F19" r:id="rId3"/>
-    <hyperlink ref="F20" r:id="rId4"/>
-    <hyperlink ref="F21" r:id="rId5"/>
-    <hyperlink ref="F22" r:id="rId6"/>
-    <hyperlink ref="F23" r:id="rId7"/>
-    <hyperlink ref="F24" r:id="rId8"/>
-    <hyperlink ref="F25" r:id="rId9"/>
-    <hyperlink ref="F26" r:id="rId10"/>
-    <hyperlink ref="F27" r:id="rId11"/>
-    <hyperlink ref="F28" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
